--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_XemDSnhânsự(mobile).xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_XemDSnhânsự(mobile).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7B5672-0F92-412F-A106-468899097927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD374FE-D700-4447-BCC9-8EC8878C8F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Test Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>Author</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>Issue official</t>
   </si>
   <si>
     <r>
@@ -194,9 +191,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>Follow new version of template</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Fix some defects in TCs</t>
   </si>
   <si>
     <t xml:space="preserve">Trịnh Như Phương </t>
@@ -309,6 +300,46 @@
   </si>
   <si>
     <t xml:space="preserve"> hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNS-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">người dùng nhấn vào tên nhân viên trong danh sách , hệ thống sẽ hiển thị thông tin chi tiết của nhân viên đó </t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNS-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra 'người dùng nhấn vào tên nhân viên trong danh sách , hệ thống sẽ hiển thị thông tin chi tiết của nhân viên đó </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn vào " tên nhân viên " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nguyễn văn a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diên chi tiết nhân sự  gồm :
+hình anh 
+-Tên:Nguyễn Văn A 
+-Năm sinh : 1999
+-sdt: 09854252212
+- Email : team@gmail.com
+-Nhóm : 2
+-Phòng : kinh doanh </t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete test case </t>
   </si>
 </sst>
 </file>
@@ -435,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +491,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -960,11 +997,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1109,6 +1159,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,30 +1204,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1214,47 +1264,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1265,13 +1324,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1597,8 +1668,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1613,31 +1684,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1658,10 +1729,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="12">
-        <v>43809</v>
+        <v>43891</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>25</v>
@@ -1671,37 +1742,31 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
@@ -1710,21 +1775,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="B12" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="B14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1733,54 +1798,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1805,10 +1870,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1842,14 +1907,14 @@
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" s="77"/>
       <c r="H2" s="78"/>
@@ -1860,11 +1925,11 @@
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="81"/>
       <c r="G3" s="83"/>
@@ -1876,11 +1941,11 @@
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67">
-        <v>43685</v>
+        <v>43891</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>9</v>
@@ -1890,7 +1955,7 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -1905,64 +1970,62 @@
         <v>2</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>15</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>45</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>17</v>
+      <c r="F9" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>17</v>
@@ -1970,27 +2033,49 @@
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>21</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2016,19 +2101,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E11</xm:sqref>
+          <xm:sqref>E9:E12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G11</xm:sqref>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F11</xm:sqref>
+          <xm:sqref>F9:F12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2039,11 +2124,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2060,40 +2145,40 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
@@ -2105,239 +2190,354 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87">
+      <c r="J3" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="105"/>
+    </row>
+    <row r="5" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85">
         <v>21</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>62</v>
+      <c r="B5" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
+        <v>61</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
+        <v>63</v>
+      </c>
+      <c r="J6" s="107"/>
+    </row>
+    <row r="7" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="47">
+        <v>3</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="108"/>
+    </row>
+    <row r="9" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85">
+        <v>21</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="47">
+        <v>2</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="85">
+        <v>21</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="102" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87">
-        <v>21</v>
-      </c>
-      <c r="B8" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="96" t="s">
+      <c r="F12" s="47">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="47">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44" t="s">
+      <c r="J12" s="109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="86"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="47">
+        <v>2</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="J13" s="110"/>
+    </row>
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="42">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="47">
-        <v>2</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="42">
-        <v>3</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87">
-        <v>21</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="47">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="42">
-        <v>2</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="41">
-        <v>3</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="41">
-        <v>4</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J14" s="111"/>
+    </row>
+    <row r="15" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85">
+        <v>21</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="47">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="42">
+        <v>2</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="41">
+        <v>3</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="41">
+        <v>4</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
+  <mergeCells count="26">
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J18"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2367,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2389,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,12 +2600,12 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_XemDSnhânsự(mobile).xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_XemDSnhânsự(mobile).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD374FE-D700-4447-BCC9-8EC8878C8F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08789DA-01DE-4709-B5E6-8C6974AE766C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>Author</t>
   </si>
@@ -236,9 +236,6 @@
     <t>TR-BDS-XDSNS-3</t>
   </si>
   <si>
-    <t>'hiện thị tên nhân sự  theo thứ tự 1-A-Z</t>
-  </si>
-  <si>
     <t>Có nhân sự : 
 -Tên:Nguyễn Văn A 
 -Năm sinh : 1999
@@ -302,13 +299,7 @@
     <t xml:space="preserve"> hiệu ứng trượt - nên hoạt động trong một nét đơn, màn hình tiếp theo phải vào độ phân giải màn hình mà không bị biến dạng</t>
   </si>
   <si>
-    <t>TR-BDS-XDSNS-0</t>
-  </si>
-  <si>
     <t xml:space="preserve">người dùng nhấn vào tên nhân viên trong danh sách , hệ thống sẽ hiển thị thông tin chi tiết của nhân viên đó </t>
-  </si>
-  <si>
-    <t>TR-BDS-XDSNS-</t>
   </si>
   <si>
     <t xml:space="preserve">kiểm tra 'người dùng nhấn vào tên nhân viên trong danh sách , hệ thống sẽ hiển thị thông tin chi tiết của nhân viên đó </t>
@@ -336,10 +327,22 @@
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/06/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complete test case </t>
+    <t xml:space="preserve"> 06/3/2020</t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNS-4</t>
+  </si>
+  <si>
+    <t>'hiện thị tên nhân sự  theo thứ tự A-Z</t>
+  </si>
+  <si>
+    <t>28/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update test case </t>
+  </si>
+  <si>
+    <t>complete version</t>
   </si>
 </sst>
 </file>
@@ -1159,6 +1162,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,27 +1210,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,13 +1270,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,70 +1318,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1672,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1684,31 +1687,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1743,7 +1746,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>52</v>
@@ -1756,9 +1759,15 @@
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -1775,21 +1784,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1798,54 +1807,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1873,7 +1882,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1890,80 +1899,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="76"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="77"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="F2" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68">
         <v>43891</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1996,11 +2005,11 @@
         <v>15</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -2016,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>43</v>
@@ -2038,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>43</v>
@@ -2060,13 +2069,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>34</v>
@@ -2127,8 +2136,8 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2146,17 +2155,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="A1" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2191,332 +2200,332 @@
         <v>4</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="105"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="A5" s="97">
         <v>21</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>59</v>
+      <c r="E5" s="86" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="106" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="107"/>
+        <v>62</v>
+      </c>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="107"/>
+        <v>64</v>
+      </c>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="47">
         <v>3</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="108"/>
+        <v>79</v>
+      </c>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85">
+      <c r="A9" s="97">
         <v>21</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="94" t="s">
+      <c r="B9" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="94" t="s">
-        <v>59</v>
+      <c r="E9" s="86" t="s">
+        <v>58</v>
       </c>
       <c r="F9" s="47">
         <v>1</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="106" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="J9" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="47">
         <v>2</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="107"/>
+        <v>62</v>
+      </c>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="47">
         <v>3</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="108"/>
+        <v>64</v>
+      </c>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85">
+      <c r="A12" s="97">
         <v>21</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>68</v>
+      <c r="B12" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>67</v>
       </c>
       <c r="F12" s="47">
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="109" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="103"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="47">
         <v>2</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="110"/>
+        <v>62</v>
+      </c>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="104"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="42">
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="111"/>
+        <v>65</v>
+      </c>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85">
+      <c r="A15" s="97">
         <v>21</v>
       </c>
-      <c r="B15" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>68</v>
+      <c r="B15" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>67</v>
       </c>
       <c r="F15" s="47">
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="106" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="J15" s="89" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="42">
         <v>2</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="107"/>
+        <v>62</v>
+      </c>
+      <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="41">
         <v>3</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="107"/>
+        <v>65</v>
+      </c>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="41">
         <v>4</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="108"/>
+        <v>74</v>
+      </c>
+      <c r="J18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A12:A14"/>
@@ -2533,11 +2542,11 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J18"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
